--- a/Documenti/Pianificazione/matrice delle responsabilità.xlsx
+++ b/Documenti/Pianificazione/matrice delle responsabilità.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
   <si>
     <t>Project Manager</t>
   </si>
@@ -24,9 +24,6 @@
     <t>Responsabile Marketing</t>
   </si>
   <si>
-    <t>Responsabile produzione</t>
-  </si>
-  <si>
     <t>Analista</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>Amministratore</t>
   </si>
   <si>
-    <t>Responsabile Vendite</t>
-  </si>
-  <si>
     <t>Studio di Fattibilità</t>
   </si>
   <si>
@@ -136,6 +130,15 @@
   </si>
   <si>
     <t>simbolo</t>
+  </si>
+  <si>
+    <t>**preparazione offera si intende candidatura per il progetto</t>
+  </si>
+  <si>
+    <t>Pianificazione generale</t>
+  </si>
+  <si>
+    <t>Business Plan</t>
   </si>
 </sst>
 </file>
@@ -274,13 +277,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
@@ -594,313 +596,310 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.28515625" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="4" max="9" width="8.7109375" customWidth="1"/>
-    <col min="11" max="11" width="37" customWidth="1"/>
+    <col min="4" max="7" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="90.75" customHeight="1">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:10" ht="90.75" customHeight="1">
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="I7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="I8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="I9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="J11" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="I13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="I14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="I15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="K6" s="12" t="s">
+      <c r="C16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
         <v>38</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="K7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="K11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="K12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="K13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="K14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Documenti/Pianificazione/matrice delle responsabilità.xlsx
+++ b/Documenti/Pianificazione/matrice delle responsabilità.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
   <si>
     <t>Project Manager</t>
   </si>
@@ -117,9 +117,6 @@
     <t>AN</t>
   </si>
   <si>
-    <t>APPROVAZIONE necessaria</t>
-  </si>
-  <si>
     <t>Consultazione Possibile</t>
   </si>
   <si>
@@ -139,13 +136,19 @@
   </si>
   <si>
     <t>Business Plan</t>
+  </si>
+  <si>
+    <t>Responsabile Qualità</t>
+  </si>
+  <si>
+    <t>Approvazione Necessaria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +159,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -277,9 +295,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -287,21 +304,26 @@
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -596,310 +618,333 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J20"/>
+  <dimension ref="B2:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="4" max="7" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="37" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="5" max="9" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="90.75" customHeight="1">
-      <c r="B1" s="3" t="s">
+    <row r="2" spans="2:12" ht="90.75" customHeight="1">
+      <c r="B2" s="5"/>
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="2:12" ht="20.25" customHeight="1">
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="20.25" customHeight="1">
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="K8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="K9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="K10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="K14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="K15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="D16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="K16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="D17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="I7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="E17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="I8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="I9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="I13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="I14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="I15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Documenti/Pianificazione/matrice delle responsabilità.xlsx
+++ b/Documenti/Pianificazione/matrice delle responsabilità.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
   <si>
     <t>Project Manager</t>
   </si>
@@ -621,7 +621,7 @@
   <dimension ref="B2:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -780,9 +780,13 @@
       <c r="B10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
